--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/134.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/134.xlsx
@@ -479,13 +479,13 @@
         <v>-17.53107621703964</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.001964969837737</v>
+        <v>-6.219858227882402</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.580061061560361</v>
+        <v>-2.917363423322556</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.571165422628225</v>
+        <v>-5.182626087025195</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-17.3930927403554</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.743294859081784</v>
+        <v>-6.900916440471122</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.444723573470421</v>
+        <v>-2.825225199908677</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.069934660618371</v>
+        <v>-4.82232583696103</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-17.16113318351075</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.286429298947967</v>
+        <v>-7.467009656584337</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.810157280744845</v>
+        <v>-3.087002183590771</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.016923159160412</v>
+        <v>-4.616224863479364</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-16.82531147954579</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.97504102714607</v>
+        <v>-8.081704489961554</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.315164891497175</v>
+        <v>-2.720986684499184</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.087762515096359</v>
+        <v>-3.871770898847358</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.41431113574435</v>
       </c>
       <c r="E6" t="n">
-        <v>-9.175399771124763</v>
+        <v>-9.101546433393144</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.912371747311436</v>
+        <v>-3.088948008323803</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.289060130269065</v>
+        <v>-3.16849215004851</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-15.92531615084923</v>
       </c>
       <c r="E7" t="n">
-        <v>-10.19316388663792</v>
+        <v>-10.04598522391631</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.87718556489025</v>
+        <v>-3.056367666562682</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.9301239131207706</v>
+        <v>-2.788347421111538</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.38323443271876</v>
       </c>
       <c r="E8" t="n">
-        <v>-10.77392901235874</v>
+        <v>-10.61846348299771</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.025244248847902</v>
+        <v>-3.118360273635164</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.379181729288125</v>
+        <v>-2.223838243223204</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-14.77839844501459</v>
       </c>
       <c r="E9" t="n">
-        <v>-11.49178189062786</v>
+        <v>-11.31436960944125</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.861203401442304</v>
+        <v>-2.986459757372665</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1497843686777378</v>
+        <v>-1.696241067180077</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-14.12902101488302</v>
       </c>
       <c r="E10" t="n">
-        <v>-11.87133504973394</v>
+        <v>-11.68135802089936</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.891544578058379</v>
+        <v>-2.960777804300761</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08397860565693356</v>
+        <v>-1.778840838196605</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-13.42233410942658</v>
       </c>
       <c r="E11" t="n">
-        <v>-12.61099778763637</v>
+        <v>-12.41624908809968</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.001767237872976</v>
+        <v>-3.038928579068397</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4729281665533482</v>
+        <v>-1.201517573310086</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-12.67552274533269</v>
       </c>
       <c r="E12" t="n">
-        <v>-13.52520295969453</v>
+        <v>-13.25339862292839</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.830299989036535</v>
+        <v>-2.817779242450366</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9220470043687561</v>
+        <v>-0.6737492820266175</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-11.87408214671814</v>
       </c>
       <c r="E13" t="n">
-        <v>-14.37434522836778</v>
+        <v>-14.15478970798837</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.038239229100161</v>
+        <v>-2.918492783908814</v>
       </c>
       <c r="G13" t="n">
-        <v>1.422128849764885</v>
+        <v>-0.06746842946736177</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-11.0320732348574</v>
       </c>
       <c r="E14" t="n">
-        <v>-14.86074763255028</v>
+        <v>-14.67237419796805</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.017519617998176</v>
+        <v>-2.841896713324857</v>
       </c>
       <c r="G14" t="n">
-        <v>2.168709532383999</v>
+        <v>0.5459650401381906</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-10.13722507307719</v>
       </c>
       <c r="E15" t="n">
-        <v>-15.6992269772468</v>
+        <v>-15.50855570943712</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.735272362564309</v>
+        <v>-2.556168485001747</v>
       </c>
       <c r="G15" t="n">
-        <v>2.740772225881718</v>
+        <v>1.170325440091298</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-9.206067400582432</v>
       </c>
       <c r="E16" t="n">
-        <v>-15.87444898335703</v>
+        <v>-15.86068642902667</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.537213805378718</v>
+        <v>-2.322278396488536</v>
       </c>
       <c r="G16" t="n">
-        <v>3.009491599314831</v>
+        <v>1.406997373511784</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-8.243120949280257</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.10786230276294</v>
+        <v>-17.04377231174455</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.282222763227902</v>
+        <v>-2.04575127908896</v>
       </c>
       <c r="G17" t="n">
-        <v>3.463968788656377</v>
+        <v>1.77285642438363</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-7.280628777735028</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.07421362206361</v>
+        <v>-18.01683134846663</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.200170560980468</v>
+        <v>-1.912516063951793</v>
       </c>
       <c r="G18" t="n">
-        <v>3.544901408331287</v>
+        <v>1.898435454767207</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-6.345483572099737</v>
       </c>
       <c r="E19" t="n">
-        <v>-18.78519744568472</v>
+        <v>-18.79079535854734</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.486282667280414</v>
+        <v>-1.252954814556898</v>
       </c>
       <c r="G19" t="n">
-        <v>3.728987183891236</v>
+        <v>2.032902699634836</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.480771266189655</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.59424985804927</v>
+        <v>-19.58600210346478</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.244355051477995</v>
+        <v>-1.014410391506384</v>
       </c>
       <c r="G20" t="n">
-        <v>3.390350123254372</v>
+        <v>1.7295936026183</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.720211495695555</v>
       </c>
       <c r="E21" t="n">
-        <v>-20.46048409472926</v>
+        <v>-20.33890427196282</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5886072274392937</v>
+        <v>-0.4333763704078772</v>
       </c>
       <c r="G21" t="n">
-        <v>2.883501892354432</v>
+        <v>1.239035542598921</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.095146623194218</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.3691353549866</v>
+        <v>-21.16459397469549</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.05487434777818887</v>
+        <v>0.1061206483493204</v>
       </c>
       <c r="G22" t="n">
-        <v>2.286935496439737</v>
+        <v>0.7897700345775053</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.623368101934263</v>
       </c>
       <c r="E23" t="n">
-        <v>-21.1374013185017</v>
+        <v>-21.19945259365659</v>
       </c>
       <c r="F23" t="n">
-        <v>0.409591082592465</v>
+        <v>0.4978474345540137</v>
       </c>
       <c r="G23" t="n">
-        <v>2.048615967705101</v>
+        <v>0.6285745891684524</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.309190751032809</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.60862335636243</v>
+        <v>-21.55642831905125</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9007944915182768</v>
+        <v>0.835707143099038</v>
       </c>
       <c r="G24" t="n">
-        <v>1.257090644958437</v>
+        <v>-0.04900265053102402</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-3.147573081869559</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.11372132280402</v>
+        <v>-22.05068735726888</v>
       </c>
       <c r="F25" t="n">
-        <v>1.439739052499513</v>
+        <v>1.293562636185623</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5146069500937981</v>
+        <v>-0.6947280104925496</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.117345051938611</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.42604085947628</v>
+        <v>-22.27682348089117</v>
       </c>
       <c r="F26" t="n">
-        <v>1.555447178018789</v>
+        <v>1.42754098036656</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1424902398401716</v>
+        <v>-1.284396017718028</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.195169360178861</v>
       </c>
       <c r="E27" t="n">
-        <v>-23.00952916202198</v>
+        <v>-22.76539171511571</v>
       </c>
       <c r="F27" t="n">
-        <v>1.740461864883452</v>
+        <v>1.55054839313814</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.8777528715623776</v>
+        <v>-1.885118069469602</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.345486829785063</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.80641537173599</v>
+        <v>-22.63672772139911</v>
       </c>
       <c r="F28" t="n">
-        <v>1.82366298374461</v>
+        <v>1.608057780913661</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.596774222472692</v>
+        <v>-2.442591966476446</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.542167524084749</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.74603124792273</v>
+        <v>-22.59915570362687</v>
       </c>
       <c r="F29" t="n">
-        <v>1.608864467046702</v>
+        <v>1.44788902694666</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.14972578812764</v>
+        <v>-2.900941249256589</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.753656898321676</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.49782614730319</v>
+        <v>-22.30344901228839</v>
       </c>
       <c r="F30" t="n">
-        <v>1.443811595219653</v>
+        <v>1.333862719789603</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.446383300363955</v>
+        <v>-3.964041125446644</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.965410545670462</v>
       </c>
       <c r="E31" t="n">
-        <v>-22.48487027910587</v>
+        <v>-22.28741795877177</v>
       </c>
       <c r="F31" t="n">
-        <v>1.524260203214739</v>
+        <v>1.366809737065743</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.674900370330427</v>
+        <v>-4.198855236257702</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.159327223491017</v>
       </c>
       <c r="E32" t="n">
-        <v>-22.30421169735962</v>
+        <v>-22.11171682998858</v>
       </c>
       <c r="F32" t="n">
-        <v>1.535817815448126</v>
+        <v>1.325023395374221</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.588264633207477</v>
+        <v>-4.946311051105994</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.334068360811704</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.96939295108582</v>
+        <v>-21.8056356660785</v>
       </c>
       <c r="F33" t="n">
-        <v>1.12777152432167</v>
+        <v>1.02287788199201</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.7698716822859</v>
+        <v>-5.117079171960466</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.483760005797141</v>
       </c>
       <c r="E34" t="n">
-        <v>-21.63527333279399</v>
+        <v>-21.46150336172323</v>
       </c>
       <c r="F34" t="n">
-        <v>1.257178647082042</v>
+        <v>1.091416869259291</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.839320024830427</v>
+        <v>-5.268506381649423</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.616333184198915</v>
       </c>
       <c r="E35" t="n">
-        <v>-21.10815527942382</v>
+        <v>-20.92674379062007</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7709913592016849</v>
+        <v>0.7026234871747463</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.846477530883591</v>
+        <v>-5.165856793471677</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.732394263583099</v>
       </c>
       <c r="E36" t="n">
-        <v>-20.65045623455697</v>
+        <v>-20.51638988825243</v>
       </c>
       <c r="F36" t="n">
-        <v>0.538357745453271</v>
+        <v>0.4936233326209992</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.204274609431894</v>
+        <v>-5.427394215817292</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.841994691417661</v>
       </c>
       <c r="E37" t="n">
-        <v>-20.30776129822057</v>
+        <v>-20.14318266005961</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6232700167178498</v>
+        <v>0.5947719956906026</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.543173322873921</v>
+        <v>-4.89400356663687</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.944789835082231</v>
       </c>
       <c r="E38" t="n">
-        <v>-19.96660151004038</v>
+        <v>-19.81763835981235</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07383853600708097</v>
+        <v>0.09696842749445558</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.238847312429066</v>
+        <v>-4.59960712913872</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.047599088409947</v>
       </c>
       <c r="E39" t="n">
-        <v>-19.67772965030184</v>
+        <v>-19.43412999415094</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.110682361164023</v>
+        <v>-0.001364167619804761</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.363365428322523</v>
+        <v>-4.695954787465013</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.145873849464098</v>
       </c>
       <c r="E40" t="n">
-        <v>-18.8348061983633</v>
+        <v>-18.70309146436175</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6002430637825513</v>
+        <v>-0.3743122784486778</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.703750399852092</v>
+        <v>-4.193858671239715</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.24173516623656</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.18870438487302</v>
+        <v>-18.02968454751975</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.048765442760196</v>
+        <v>-0.7324564764845323</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.537152601855098</v>
+        <v>-4.127089504458257</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.326790445540545</v>
       </c>
       <c r="E42" t="n">
-        <v>-17.49448496579857</v>
+        <v>-17.37714391198574</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.397962758229596</v>
+        <v>-0.9591743919239791</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.762230346428478</v>
+        <v>-3.560262937315005</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.402024586397094</v>
       </c>
       <c r="E43" t="n">
-        <v>-16.97573689218456</v>
+        <v>-16.87530691312439</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.405770502196059</v>
+        <v>-0.9816833795392556</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.236725665324391</v>
+        <v>-3.042008653394553</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.460711657557704</v>
       </c>
       <c r="E44" t="n">
-        <v>-16.41012768775117</v>
+        <v>-16.27471197555136</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.492066362403975</v>
+        <v>-1.083311165281817</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.154013447149924</v>
+        <v>-3.06643413170166</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.507755439744593</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.36359900939874</v>
+        <v>-16.05765473768093</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.750362373196825</v>
+        <v>-1.296735871050122</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.118690372536463</v>
+        <v>-3.058044595918034</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.542152101497179</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.29412875726109</v>
+        <v>-15.06298140160022</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.84550244682699</v>
+        <v>-1.412859562153086</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.639298804201118</v>
+        <v>-2.614611673088848</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.573883342579479</v>
       </c>
       <c r="E47" t="n">
-        <v>-14.84009646754444</v>
+        <v>-14.56087061835432</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.208467205633623</v>
+        <v>-1.716095324066618</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.558405296581144</v>
+        <v>-2.587091453434984</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.606649530803846</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.08936012908844</v>
+        <v>-13.82711868975399</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.213742444043024</v>
+        <v>-1.757426988119517</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.219812237006082</v>
+        <v>-2.350585746247973</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.651354978484479</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.1205617709131</v>
+        <v>-13.72136458221576</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.574766267123491</v>
+        <v>-2.016544352066009</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.15853342493617</v>
+        <v>-2.260642686917339</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.712683228939424</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.48331883786567</v>
+        <v>-13.113118348896</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.951185572827874</v>
+        <v>-2.321227260012149</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.086704136047456</v>
+        <v>-2.2894047143154</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.797959956128619</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.89748381202385</v>
+        <v>-12.59981662893173</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.865070605874034</v>
+        <v>-2.244430740146649</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.082392031990837</v>
+        <v>-2.362260694646166</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.910058402460004</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.48135599254638</v>
+        <v>-12.14926531210432</v>
       </c>
       <c r="F52" t="n">
-        <v>-3.013960420999062</v>
+        <v>-2.409977401667256</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.018805608679741</v>
+        <v>-2.308163833663752</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.05054378605355</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.86707672475286</v>
+        <v>-11.52204484313407</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.241191682159535</v>
+        <v>-2.531982568031119</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.336957730544231</v>
+        <v>-2.550233230665312</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.220853259272509</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.17982902947062</v>
+        <v>-10.95624985643973</v>
       </c>
       <c r="F54" t="n">
-        <v>-3.36568046401179</v>
+        <v>-2.640973198115254</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.18314468550422</v>
+        <v>-2.455102935048881</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.417200964637974</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.51612679125945</v>
+        <v>-10.22387173876901</v>
       </c>
       <c r="F55" t="n">
-        <v>-3.539323320904008</v>
+        <v>-2.816234316280421</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.9725262696775239</v>
+        <v>-2.402233214790063</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.640187661590746</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.01024658371916</v>
+        <v>-9.780854381523509</v>
       </c>
       <c r="F56" t="n">
-        <v>-3.656327033243017</v>
+        <v>-2.946086338665682</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.5791029980900111</v>
+        <v>-2.162158532590204</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.882129862218742</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.513220367614851</v>
+        <v>-9.286600232312743</v>
       </c>
       <c r="F57" t="n">
-        <v>-3.407315246490438</v>
+        <v>-2.718058169385902</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.7264234420107593</v>
+        <v>-2.24918285482129</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.14513303258974</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.144921702316415</v>
+        <v>-8.939803419214998</v>
       </c>
       <c r="F58" t="n">
-        <v>-3.566207969665174</v>
+        <v>-2.826872795222828</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.6867833743338129</v>
+        <v>-2.324092218036161</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.419149674738985</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.422570937729731</v>
+        <v>-8.235248639623885</v>
       </c>
       <c r="F59" t="n">
-        <v>-3.793375673736377</v>
+        <v>-3.079042880411434</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.7560703796517315</v>
+        <v>-2.389453350839947</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.708289198359028</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.408255925623404</v>
+        <v>-8.211155613783728</v>
       </c>
       <c r="F60" t="n">
-        <v>-4.092514447895435</v>
+        <v>-3.258933888079569</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.7711334098086964</v>
+        <v>-2.396268626412427</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.000321864003951</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.301709798972727</v>
+        <v>-8.051226421153206</v>
       </c>
       <c r="F61" t="n">
-        <v>-4.063547082208964</v>
+        <v>-3.251121255106239</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.802887509409309</v>
+        <v>-2.446410280839507</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.299860244503483</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.898806743070265</v>
+        <v>-7.709734180506064</v>
       </c>
       <c r="F62" t="n">
-        <v>-4.095936752702276</v>
+        <v>-3.24864741763158</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.6074934609661862</v>
+        <v>-2.362211804577497</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.591994759801963</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.759797610823273</v>
+        <v>-7.49332718054894</v>
       </c>
       <c r="F63" t="n">
-        <v>-4.19342354962856</v>
+        <v>-3.374959799045195</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.8262569622331625</v>
+        <v>-2.465404072517471</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.878944133488719</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.405021938518723</v>
+        <v>-7.198515177467102</v>
       </c>
       <c r="F64" t="n">
-        <v>-4.586255251385175</v>
+        <v>-3.696094215098503</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.6771471417991235</v>
+        <v>-2.333117324712486</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.144460243084579</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.424900640439599</v>
+        <v>-7.164957034332598</v>
       </c>
       <c r="F65" t="n">
-        <v>-4.420141465068006</v>
+        <v>-3.535822791987298</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5770545042127737</v>
+        <v>-2.261009362432358</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.391170167973492</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.246300330584329</v>
+        <v>-7.003888703102085</v>
       </c>
       <c r="F66" t="n">
-        <v>-4.43801078516658</v>
+        <v>-3.566251970726976</v>
       </c>
       <c r="G66" t="n">
-        <v>-1.054906035385041</v>
+        <v>-2.608700863786748</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.604509234835302</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.024349196840124</v>
+        <v>-6.822408768202202</v>
       </c>
       <c r="F67" t="n">
-        <v>-4.677146778047991</v>
+        <v>-3.773174297362284</v>
       </c>
       <c r="G67" t="n">
-        <v>-1.100540025480825</v>
+        <v>-2.622478085137714</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.788044722707687</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.156860838960987</v>
+        <v>-6.915519903982597</v>
       </c>
       <c r="F68" t="n">
-        <v>-4.741437218347923</v>
+        <v>-3.863376474056865</v>
       </c>
       <c r="G68" t="n">
-        <v>-1.152070157858109</v>
+        <v>-2.586925227201509</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.927555198697087</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.193029711762423</v>
+        <v>-6.925537479052906</v>
       </c>
       <c r="F69" t="n">
-        <v>-4.547695654225818</v>
+        <v>-3.724817130441628</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7394917573660229</v>
+        <v>-2.251979366749166</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.02710261137078</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.178690254621762</v>
+        <v>-6.876676744424958</v>
       </c>
       <c r="F70" t="n">
-        <v>-4.493447234030529</v>
+        <v>-3.724949133627035</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.9659701114689909</v>
+        <v>-2.438377642557165</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.07429062671114</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.27125871063993</v>
+        <v>-7.078455835836272</v>
       </c>
       <c r="F71" t="n">
-        <v>-4.76638582038979</v>
+        <v>-3.912188318616144</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7466590414329202</v>
+        <v>-2.210779705881674</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.07589544742793</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.493698745070826</v>
+        <v>-7.245527867499356</v>
       </c>
       <c r="F72" t="n">
-        <v>-4.801655115927714</v>
+        <v>-3.939596091112069</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.9307154829516673</v>
+        <v>-2.28094184342877</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.02241474389452</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.662164143690982</v>
+        <v>-7.401971198233768</v>
       </c>
       <c r="F73" t="n">
-        <v>-4.900315274502058</v>
+        <v>-4.019570465441064</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.8798062544464819</v>
+        <v>-2.251026010410117</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.92209907201482</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.644969506540042</v>
+        <v>-7.424035286224155</v>
       </c>
       <c r="F74" t="n">
-        <v>-4.982421255825027</v>
+        <v>-4.069443224490463</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.553357487928837</v>
+        <v>-1.869355911330668</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.766652013290386</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.209796469874725</v>
+        <v>-7.981274510901387</v>
       </c>
       <c r="F75" t="n">
-        <v>-5.231965944326101</v>
+        <v>-4.317506543910861</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5252212534097415</v>
+        <v>-1.828400700806522</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.56642118879442</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.57640353879721</v>
+        <v>-8.258476311248597</v>
       </c>
       <c r="F76" t="n">
-        <v>-5.280562672583235</v>
+        <v>-4.376184404327574</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3971488295240375</v>
+        <v>-1.609461195292336</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.315578597039979</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.161539436657058</v>
+        <v>-8.843773546335054</v>
       </c>
       <c r="F77" t="n">
-        <v>-5.116653828363044</v>
+        <v>-4.287468485720535</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1609657967902433</v>
+        <v>-1.403863789517962</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.027059206854815</v>
       </c>
       <c r="E78" t="n">
-        <v>-10.05512766675744</v>
+        <v>-9.613004997768586</v>
       </c>
       <c r="F78" t="n">
-        <v>-5.65512415567819</v>
+        <v>-4.649015432535762</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1572352151429162</v>
+        <v>-1.122521000354475</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.697509444569345</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.97640723175202</v>
+        <v>-10.47268307624004</v>
       </c>
       <c r="F79" t="n">
-        <v>-5.825051367351553</v>
+        <v>-4.777151413510737</v>
       </c>
       <c r="G79" t="n">
-        <v>0.4958673867729131</v>
+        <v>-0.7864066672609388</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.342082772081918</v>
       </c>
       <c r="E80" t="n">
-        <v>-11.73974742991092</v>
+        <v>-11.18689364439331</v>
       </c>
       <c r="F80" t="n">
-        <v>-5.905548865415307</v>
+        <v>-4.846228191533378</v>
       </c>
       <c r="G80" t="n">
-        <v>0.7878633218994084</v>
+        <v>-0.4915848861653666</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.959889710433423</v>
       </c>
       <c r="E81" t="n">
-        <v>-12.89939052470195</v>
+        <v>-12.22201373428401</v>
       </c>
       <c r="F81" t="n">
-        <v>-5.65887891295198</v>
+        <v>-4.666107400542497</v>
       </c>
       <c r="G81" t="n">
-        <v>1.032078992915544</v>
+        <v>-0.2201667809417164</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.56620592566915</v>
       </c>
       <c r="E82" t="n">
-        <v>-13.76610388405489</v>
+        <v>-13.08066023230655</v>
       </c>
       <c r="F82" t="n">
-        <v>-5.77912892585062</v>
+        <v>-4.791505537671998</v>
       </c>
       <c r="G82" t="n">
-        <v>1.047899819136881</v>
+        <v>-0.1643441005352815</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.161538563956502</v>
       </c>
       <c r="E83" t="n">
-        <v>-14.64737181685065</v>
+        <v>-13.9612339261272</v>
       </c>
       <c r="F83" t="n">
-        <v>-6.151172570409114</v>
+        <v>-5.059833790555759</v>
       </c>
       <c r="G83" t="n">
-        <v>1.083482011114288</v>
+        <v>-0.06451546931974515</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.75823669037758</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.35427567330353</v>
+        <v>-15.4458590853758</v>
       </c>
       <c r="F84" t="n">
-        <v>-6.040382785797955</v>
+        <v>-4.982171916474815</v>
       </c>
       <c r="G84" t="n">
-        <v>0.962865322700629</v>
+        <v>-0.08828582070668563</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.357387735605803</v>
       </c>
       <c r="E85" t="n">
-        <v>-17.63782086912278</v>
+        <v>-16.70456812631112</v>
       </c>
       <c r="F85" t="n">
-        <v>-5.87790642058977</v>
+        <v>-4.871621693200134</v>
       </c>
       <c r="G85" t="n">
-        <v>1.158738493816709</v>
+        <v>0.1210516753208786</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.967864092976567</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.20251818283771</v>
+        <v>-18.1515430436776</v>
       </c>
       <c r="F86" t="n">
-        <v>-5.612936915423581</v>
+        <v>-4.684142946874546</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9840982795236406</v>
+        <v>0.01071656834834207</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.591348278942543</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.5432745370136</v>
+        <v>-19.51998095473396</v>
       </c>
       <c r="F87" t="n">
-        <v>-5.681695907999872</v>
+        <v>-4.699621542615199</v>
       </c>
       <c r="G87" t="n">
-        <v>0.7270489654818534</v>
+        <v>-0.100219886468825</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.233845653965059</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.02993352311883</v>
+        <v>-20.99322939500325</v>
       </c>
       <c r="F88" t="n">
-        <v>-5.678180712062561</v>
+        <v>-4.692860046118255</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2319539070899773</v>
+        <v>-0.5275288646509253</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.897685054025689</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.79933355435148</v>
+        <v>-22.66195010782553</v>
       </c>
       <c r="F89" t="n">
-        <v>-5.60525139662879</v>
+        <v>-4.630349204317882</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1688175418185086</v>
+        <v>-0.7642839111881485</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.586439911081171</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.31258873781274</v>
+        <v>-24.24246335875492</v>
       </c>
       <c r="F90" t="n">
-        <v>-5.326353110898761</v>
+        <v>-4.362064952495923</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.5295578025006951</v>
+        <v>-1.072428235996064</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.304041715746189</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.98697580959377</v>
+        <v>-25.88860663786578</v>
       </c>
       <c r="F91" t="n">
-        <v>-4.832299410969537</v>
+        <v>-4.033455244943102</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.7630909935126213</v>
+        <v>-1.214111654999259</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.052557986176176</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.71562107958382</v>
+        <v>-27.68433886008365</v>
       </c>
       <c r="F92" t="n">
-        <v>-4.361400047562023</v>
+        <v>-3.68933271860156</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.227727539123617</v>
+        <v>-1.61170524944425</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.837179310302793</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.60629781515717</v>
+        <v>-29.57639918460033</v>
       </c>
       <c r="F93" t="n">
-        <v>-4.099339501481648</v>
+        <v>-3.45691422115529</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.943942600092323</v>
+        <v>-2.232995353084935</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.657512480897664</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.4160052635041</v>
+        <v>-31.45989396908618</v>
       </c>
       <c r="F94" t="n">
-        <v>-4.31809322473489</v>
+        <v>-3.650181551611305</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.129191959286597</v>
+        <v>-2.420591435575329</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.516834035309654</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.74201383752816</v>
+        <v>-33.73638179255526</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.763982964452484</v>
+        <v>-3.258220093077</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.663839083231815</v>
+        <v>-2.885335539337397</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.41333886952304</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.6798083767814</v>
+        <v>-35.74391557026161</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.430723811369227</v>
+        <v>-3.124217303861728</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.28585764889567</v>
+        <v>-3.387690772926641</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.34598573782946</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.64153216014476</v>
+        <v>-37.74255868898047</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.386571190354118</v>
+        <v>-3.13857142802299</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.91184608813546</v>
+        <v>-3.907758878394719</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.314654475926851</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.84246038248566</v>
+        <v>-39.91045189192163</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.31251251433409</v>
+        <v>-3.124178191806792</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.042299458365352</v>
+        <v>-4.029206697975753</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.311443719742883</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.68627109823277</v>
+        <v>-41.8954473479715</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.885765771941685</v>
+        <v>-2.830832890785029</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.182609066438943</v>
+        <v>-4.171134567322294</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.343713111460833</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.94688187190153</v>
+        <v>-44.13778790297861</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.89011698805324</v>
+        <v>-2.874897509676533</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.818732416913848</v>
+        <v>-4.724047020922306</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.390563362939311</v>
       </c>
       <c r="E101" t="n">
-        <v>-46.933031133572</v>
+        <v>-46.16778177823157</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.546092241849035</v>
+        <v>-2.674379782036883</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.144178937023775</v>
+        <v>-5.078402238636301</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.484725565590885</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.64162649546305</v>
+        <v>-48.80680046114784</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.159797142273484</v>
+        <v>-2.475886103240136</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.33724092919138</v>
+        <v>-5.261119092273514</v>
       </c>
     </row>
   </sheetData>
